--- a/data_fsr1.xlsx
+++ b/data_fsr1.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B218"/>
+  <dimension ref="A1:B415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45393.57562886663</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45393.57563560523</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45393.57563957365</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45393.57564251059</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45393.57564599731</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45393.57564958159</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45393.5756533863</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45393.5756565177</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45393.57565973936</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45393.57566314742</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45393.57566609845</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45393.57566892192</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45393.575672254</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45393.57567518249</v>
+        <v>45398.5841617136</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45393.5756789588</v>
+        <v>45398.5841635035</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45393.57568220223</v>
+        <v>45398.5841651978</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -579,15 +579,15 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45393.57568514157</v>
+        <v>45398.58416698383</v>
       </c>
       <c r="B18" t="n">
-        <v>362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45393.57568787111</v>
+        <v>45398.58416860303</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45393.57569093559</v>
+        <v>45398.58417040152</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45393.57569369832</v>
+        <v>45398.58417220438</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -611,23 +611,23 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45393.57569690321</v>
+        <v>45398.58417386457</v>
       </c>
       <c r="B22" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45393.57570051929</v>
+        <v>45398.58417570055</v>
       </c>
       <c r="B23" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45393.57570326861</v>
+        <v>45398.58417747216</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45393.57570670756</v>
+        <v>45398.58417913755</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -643,15 +643,15 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45393.5757094721</v>
+        <v>45398.58418096774</v>
       </c>
       <c r="B26" t="n">
-        <v>392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45393.57571271646</v>
+        <v>45398.58418263005</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45393.57571561207</v>
+        <v>45398.58418427406</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -667,23 +667,23 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45393.57571927291</v>
+        <v>45398.58418610972</v>
       </c>
       <c r="B29" t="n">
-        <v>230</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45393.57572285822</v>
+        <v>45398.58418793909</v>
       </c>
       <c r="B30" t="n">
-        <v>356</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45393.57572681706</v>
+        <v>45398.5841895518</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45393.57573035655</v>
+        <v>45398.58419138679</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -699,23 +699,23 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45393.57573359081</v>
+        <v>45398.58419306257</v>
       </c>
       <c r="B33" t="n">
-        <v>289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45393.57573689678</v>
+        <v>45398.58419479822</v>
       </c>
       <c r="B34" t="n">
-        <v>366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45393.57574016946</v>
+        <v>45398.58419649404</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45393.57574412816</v>
+        <v>45398.58419829841</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -731,23 +731,23 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45393.57574721739</v>
+        <v>45398.58419993837</v>
       </c>
       <c r="B37" t="n">
-        <v>274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45393.57575006365</v>
+        <v>45398.58420178214</v>
       </c>
       <c r="B38" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45393.57575301</v>
+        <v>45398.58420341337</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45393.57575622976</v>
+        <v>45398.58420525357</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45393.57575881465</v>
+        <v>45398.58420699324</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45393.57576186988</v>
+        <v>45398.58420869351</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -779,31 +779,31 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45393.57576497291</v>
+        <v>45398.5842105327</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45393.57576902851</v>
+        <v>45398.58421217924</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45393.57577191366</v>
+        <v>45398.58421395074</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45393.57577518153</v>
+        <v>45398.58421560362</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45393.57577823738</v>
+        <v>45398.58421746291</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45393.57578129444</v>
+        <v>45398.584219185</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45393.57578445192</v>
+        <v>45398.58422091694</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45393.57578743873</v>
+        <v>45398.58422256918</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45393.57579036924</v>
+        <v>45398.58422440951</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45393.57579379734</v>
+        <v>45398.58422611433</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45393.57579674364</v>
+        <v>45398.58422786812</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45393.57579978924</v>
+        <v>45398.58422962343</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45393.5758027245</v>
+        <v>45398.58423136053</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45393.57580559253</v>
+        <v>45398.58423310866</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -891,31 +891,31 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45393.57580818067</v>
+        <v>45398.58423482081</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45393.57581104946</v>
+        <v>45398.58423658384</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45393.57581396667</v>
+        <v>45398.58423825009</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45393.57581755815</v>
+        <v>45398.58424007746</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45393.57582086002</v>
+        <v>45398.58424174303</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45393.57582373326</v>
+        <v>45398.58424348803</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45393.57582704191</v>
+        <v>45398.58424515415</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45393.57583032965</v>
+        <v>45398.58424699696</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45393.57583320675</v>
+        <v>45398.58424872105</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45393.57583625019</v>
+        <v>45398.58425049621</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45393.57583900991</v>
+        <v>45398.58425215</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45393.57584289171</v>
+        <v>45398.58425397892</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45393.57584591747</v>
+        <v>45398.58425566678</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -995,31 +995,31 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45393.575848945</v>
+        <v>45398.5842574343</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45393.575851835</v>
+        <v>45398.58425911153</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45393.57585494199</v>
+        <v>45398.58426093441</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45393.57585823681</v>
+        <v>45398.58426251703</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45393.57586127764</v>
+        <v>45398.58426439583</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45393.57586448466</v>
+        <v>45398.58426599699</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45393.57586836808</v>
+        <v>45398.5842678327</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45393.57587129883</v>
+        <v>45398.58426956151</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45393.57587436765</v>
+        <v>45398.5842713003</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45393.57587729074</v>
+        <v>45398.58427306951</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45393.57588017821</v>
+        <v>45398.58427477522</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45393.57588309022</v>
+        <v>45398.584276552</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45393.57588615768</v>
+        <v>45398.58427826024</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45393.57588925668</v>
+        <v>45398.58428004295</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45393.57589252155</v>
+        <v>45398.58428174556</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -1115,31 +1115,31 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45393.57589542901</v>
+        <v>45398.58428354465</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45393.5758986943</v>
+        <v>45398.5842852291</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45393.57590163527</v>
+        <v>45398.58428693945</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45393.57590466098</v>
+        <v>45398.58428871365</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45393.57590758964</v>
+        <v>45398.58429033496</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45393.57591065442</v>
+        <v>45398.58429220229</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45393.57591411244</v>
+        <v>45398.58429395386</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45393.57591738486</v>
+        <v>45398.58429568403</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45393.57592079484</v>
+        <v>45398.58429742293</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45393.57592427699</v>
+        <v>45398.58429916108</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45393.57592733652</v>
+        <v>45398.58430077589</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45393.57593064466</v>
+        <v>45398.58430264218</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45393.57593371296</v>
+        <v>45398.58430438904</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45393.57593662562</v>
+        <v>45398.58430612322</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45393.57594029081</v>
+        <v>45398.58430784634</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45393.57594334141</v>
+        <v>45398.58430959695</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45393.57594642765</v>
+        <v>45398.58431128859</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1251,23 +1251,23 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45393.57594987913</v>
+        <v>45398.58431308437</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45393.57595297684</v>
+        <v>45398.58431470744</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45393.57595581177</v>
+        <v>45398.58431656424</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45393.57595840344</v>
+        <v>45398.58431822518</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45393.57596206929</v>
+        <v>45398.58432003897</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45393.57596507746</v>
+        <v>45398.58432165231</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45393.575968022</v>
+        <v>45398.58432351879</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45393.57597130629</v>
+        <v>45398.58432513136</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45393.5759744098</v>
+        <v>45398.58432694634</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45393.57597767314</v>
+        <v>45398.58432861615</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45393.57598057562</v>
+        <v>45398.58433041137</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45393.57598375704</v>
+        <v>45398.58433207558</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45393.57598684452</v>
+        <v>45398.58433391486</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45393.5759897496</v>
+        <v>45398.58433570599</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1363,31 +1363,31 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45393.57599248439</v>
+        <v>45398.58433745438</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45393.57599537809</v>
+        <v>45398.58433913269</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>361</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45393.575998309</v>
+        <v>45398.58434076088</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45393.57600141429</v>
+        <v>45398.58434257643</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45393.57600463237</v>
+        <v>45398.58434421817</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45393.57600794882</v>
+        <v>45398.58434605736</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45393.57601118503</v>
+        <v>45398.58434782183</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45393.57601394747</v>
+        <v>45398.58434957338</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45393.57601701052</v>
+        <v>45398.58435120533</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45393.57602006139</v>
+        <v>45398.58435302921</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45393.57602334537</v>
+        <v>45398.58435468552</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45393.5760269388</v>
+        <v>45398.58435650347</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -1459,31 +1459,31 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45393.57602954399</v>
+        <v>45398.58435831706</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45393.57603264738</v>
+        <v>45398.58435999602</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>368</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45393.57603571522</v>
+        <v>45398.58436162866</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45393.57603899631</v>
+        <v>45398.58436344876</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45393.57604227866</v>
+        <v>45398.58436508085</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45393.57604538422</v>
+        <v>45398.58436688073</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45393.57604895543</v>
+        <v>45398.58436851168</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45393.57605201656</v>
+        <v>45398.58437042469</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45393.57605533556</v>
+        <v>45398.58437218936</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45393.5760580897</v>
+        <v>45398.58437390602</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45393.57606130551</v>
+        <v>45398.5843755907</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45393.57606446071</v>
+        <v>45398.58437740863</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45393.57606830198</v>
+        <v>45398.58437902891</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -1563,23 +1563,23 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45393.576071388</v>
+        <v>45398.58438086977</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>287</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45393.57607461296</v>
+        <v>45398.58438250743</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45393.5760785175</v>
+        <v>45398.58438433634</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45393.57608192573</v>
+        <v>45398.58438599266</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45393.57608528482</v>
+        <v>45398.58438780253</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45393.57608827627</v>
+        <v>45398.58438953302</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45393.57609184127</v>
+        <v>45398.58439128985</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45393.576094649</v>
+        <v>45398.58439304426</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45393.57609777393</v>
+        <v>45398.5843947707</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45393.57610098802</v>
+        <v>45398.58439637655</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45393.57610398398</v>
+        <v>45398.5843982719</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45393.57610698551</v>
+        <v>45398.5843999096</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
@@ -1659,31 +1659,31 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45393.57611065021</v>
+        <v>45398.58440173548</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45393.57611388411</v>
+        <v>45398.58440349231</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45393.57611748427</v>
+        <v>45398.5844051371</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45393.57612077121</v>
+        <v>45398.58440695881</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45393.57612378675</v>
+        <v>45398.58440860092</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45393.57612695551</v>
+        <v>45398.58441041131</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45393.57613093664</v>
+        <v>45398.58441205975</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45393.57613406946</v>
+        <v>45398.58441388902</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45393.57613816377</v>
+        <v>45398.58441561803</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45393.5761414368</v>
+        <v>45398.58441726115</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45393.57614490101</v>
+        <v>45398.5844190975</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
@@ -1747,31 +1747,31 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45393.57614816448</v>
+        <v>45398.58442092022</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45393.57615257603</v>
+        <v>45398.58442257212</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>349</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45393.57615595949</v>
+        <v>45398.58442421827</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45393.57615894807</v>
+        <v>45398.58442603912</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45393.57616213184</v>
+        <v>45398.58442776994</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45393.57616533433</v>
+        <v>45398.58442947394</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45393.57616885889</v>
+        <v>45398.58443124514</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45393.57617186824</v>
+        <v>45398.5844328929</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45393.57617557369</v>
+        <v>45398.58443465449</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45393.57617853335</v>
+        <v>45398.58443648546</v>
       </c>
       <c r="B173" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45393.57618136649</v>
+        <v>45398.58443810317</v>
       </c>
       <c r="B174" t="n">
         <v>0</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45393.5761851527</v>
+        <v>45398.58443994248</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
@@ -1843,23 +1843,23 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45393.57618807051</v>
+        <v>45398.58444160598</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45393.57619109256</v>
+        <v>45398.58444343584</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45393.5761938887</v>
+        <v>45398.58444507633</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45393.57619732711</v>
+        <v>45398.58444682304</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45393.57620006616</v>
+        <v>45398.5844486614</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45393.57620315568</v>
+        <v>45398.58445030936</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45393.57620620604</v>
+        <v>45398.58445218195</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45393.57620942521</v>
+        <v>45398.58445379858</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45393.5762125662</v>
+        <v>45398.58445561449</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45393.57621560855</v>
+        <v>45398.58445725912</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45393.57621836917</v>
+        <v>45398.58445910618</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45393.57622309508</v>
+        <v>45398.58446070581</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45393.57622599327</v>
+        <v>45398.58446252008</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45393.57622907683</v>
+        <v>45398.58446417385</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45393.57623180067</v>
+        <v>45398.58446606384</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -1963,15 +1963,15 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45393.57623455249</v>
+        <v>45398.58446771561</v>
       </c>
       <c r="B191" t="n">
-        <v>372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45393.57623742914</v>
+        <v>45398.58446936902</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45393.57624068376</v>
+        <v>45398.58447129322</v>
       </c>
       <c r="B193" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45393.57624396333</v>
+        <v>45398.58447293976</v>
       </c>
       <c r="B194" t="n">
         <v>0</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45393.57624688555</v>
+        <v>45398.58447458648</v>
       </c>
       <c r="B195" t="n">
         <v>0</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45393.5762498496</v>
+        <v>45398.58447641465</v>
       </c>
       <c r="B196" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45393.57625264976</v>
+        <v>45398.58447811026</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
@@ -2019,23 +2019,23 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45393.57625557074</v>
+        <v>45398.58447993522</v>
       </c>
       <c r="B198" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45393.57625865108</v>
+        <v>45398.58448156968</v>
       </c>
       <c r="B199" t="n">
-        <v>287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45393.57626142565</v>
+        <v>45398.58448337481</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45393.5762660918</v>
+        <v>45398.58448517965</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45393.57626881762</v>
+        <v>45398.58448682404</v>
       </c>
       <c r="B202" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45393.5762716948</v>
+        <v>45398.58448865327</v>
       </c>
       <c r="B203" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45393.57627461265</v>
+        <v>45398.58449026693</v>
       </c>
       <c r="B204" t="n">
         <v>0</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45393.57627787037</v>
+        <v>45398.58449208623</v>
       </c>
       <c r="B205" t="n">
         <v>0</v>
@@ -2083,23 +2083,23 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45393.57628134418</v>
+        <v>45398.58449388156</v>
       </c>
       <c r="B206" t="n">
-        <v>249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45393.57628460566</v>
+        <v>45398.58449557016</v>
       </c>
       <c r="B207" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45393.57628788271</v>
+        <v>45398.58449726992</v>
       </c>
       <c r="B208" t="n">
         <v>0</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45393.57629148389</v>
+        <v>45398.5844990994</v>
       </c>
       <c r="B209" t="n">
         <v>0</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45393.57629458627</v>
+        <v>45398.58450077217</v>
       </c>
       <c r="B210" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45393.57629751206</v>
+        <v>45398.58450244416</v>
       </c>
       <c r="B211" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45393.57630050115</v>
+        <v>45398.58450426219</v>
       </c>
       <c r="B212" t="n">
         <v>0</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45393.57630327129</v>
+        <v>45398.58450591865</v>
       </c>
       <c r="B213" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45393.57630656587</v>
+        <v>45398.58450775084</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45393.57631013849</v>
+        <v>45398.58450937726</v>
       </c>
       <c r="B215" t="n">
         <v>0</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45393.57631373968</v>
+        <v>45398.58451120159</v>
       </c>
       <c r="B216" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45393.5763167097</v>
+        <v>45398.58451302153</v>
       </c>
       <c r="B217" t="n">
         <v>0</v>
@@ -2179,9 +2179,1585 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45393.57631997589</v>
+        <v>45398.58451470469</v>
       </c>
       <c r="B218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45398.58451634123</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45398.58451815814</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45398.58451996616</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45398.58452157606</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45398.58452340237</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45398.58452503458</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45398.58452677817</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45398.58452862166</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45398.58453039027</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45398.58453210782</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45398.584533765</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>45398.58453560687</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45398.58453732568</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45398.58453906065</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45398.58454077401</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45398.58454239806</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45398.58454424928</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45398.58454588563</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45398.58454770338</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>45398.58454934211</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>45398.58455120755</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>45398.58455282731</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>45398.5845546498</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>45398.58455646955</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>45398.58455815427</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>45398.58455979751</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>45398.58456162238</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>45398.58456337814</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>45398.58456513452</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>45398.58456677366</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45398.58456861843</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45398.58457021113</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45398.58457204081</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45398.58457367853</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45398.5845755332</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45398.58457732652</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45398.58457896542</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45398.58458079874</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45398.58458242361</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45398.58458425311</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45398.58458592195</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45398.58458769979</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45398.58458934518</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45398.58459119103</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45398.5845928238</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45398.5845947048</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45398.58459629327</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45398.58459807099</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45398.58459986624</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45398.58460150862</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45398.58460334259</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45398.58460499197</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45398.58460673061</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45398.58460853302</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45398.58461034638</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45398.58461202047</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45398.58461381667</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45398.58461545286</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45398.58461728431</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45398.58461890977</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45398.58462075414</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45398.58462240382</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45398.584624265</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45398.58462593151</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45398.5846275676</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45398.58462947363</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45398.58463107402</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45398.58463289186</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45398.58463454531</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45398.58463644025</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45398.58463807747</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45398.58463989722</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45398.58464154629</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45398.58464321949</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45398.5846450753</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45398.58464686776</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45398.58464859035</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45398.58465022784</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45398.58465204206</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45398.58465368512</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45398.58465544901</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45398.58465710474</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45398.58465897269</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45398.58466072474</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45398.58466250078</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45398.5846642187</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45398.58466586135</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45398.58466763494</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45398.58466934218</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45398.58467112558</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45398.58467294964</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45398.5846746295</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45398.58467630394</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45398.58467810372</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45398.58467985022</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45398.58468166714</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45398.58468330622</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45398.58468494162</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45398.58468676612</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45398.58468859083</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45398.58469023633</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>45398.58469203272</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>45398.58469372116</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>45398.58469550812</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>45398.58469720156</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>45398.58469898763</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>45398.58470068508</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>45398.58470239028</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>45398.58470424703</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>45398.5847058497</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45398.58470767207</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45398.58470930711</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45398.58471114202</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45398.58471290034</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45398.58471462499</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>45398.58471634123</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>45398.58471811228</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>45398.58471982655</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>45398.58472159866</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>45398.58472333541</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>45398.58472508302</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>45398.58472663685</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>45398.58472855799</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>45398.58473031443</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>45398.5847319618</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>45398.58473375266</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>45398.58473552212</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>45398.58473728285</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>45398.58473883932</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>45398.58474065489</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>45398.58474236058</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>45398.5847441978</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>45398.58474586387</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>45398.58474766497</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>45398.58474929862</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45398.58475116654</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>45398.5847528762</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>45398.5847546174</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>45398.58475624992</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>45398.5847580681</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>45398.58475970093</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>45398.58476152438</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>45398.58476334641</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>45398.58476505474</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>45398.58476669774</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>45398.58476856349</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>45398.58477020478</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>45398.58477202493</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45398.58477367655</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>45398.58477548145</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>45398.58477722565</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>45398.58477896762</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>45398.58478060905</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>45398.58478242601</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>45398.58478420174</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>45398.58478585364</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>45398.58478750359</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>45398.58478935085</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>45398.58479103664</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>45398.58479286554</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>45398.58479449821</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>45398.58479628777</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>45398.58479810954</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>45398.58479977211</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>45398.584801424</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>45398.58480324148</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>45398.584805028</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>45398.58480673978</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>45398.58480851303</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>45398.58481017173</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>45398.58481199726</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>45398.58481365738</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>45398.58481544455</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45398.58481710187</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45398.58481893384</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45398.58482066793</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>45398.58482232717</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>45398.58482413971</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>45398.5848257742</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>45398.58482748106</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>45398.58482930061</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>45398.58483112465</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>45398.58483283258</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>45398.58483445943</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>45398.58483627301</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>45398.58483798245</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>45398.5848397846</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>45398.58484156678</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>45398.58484322271</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>45398.58484497591</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>45398.58484673603</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>45398.58484840022</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="n">
+        <v>45398.58485025269</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>45398.58485200263</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="n">
+        <v>45398.58485364776</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="n">
+        <v>45398.58485532266</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="n">
+        <v>45398.58485713322</v>
+      </c>
+      <c r="B415" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data_fsr1.xlsx
+++ b/data_fsr1.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B415"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,39 +451,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65835548688</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>860</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65835721672</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>974</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65835887073</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>951</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65836069006</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65836233555</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65836411686</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65836579174</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.6583676097</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65836920054</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65837137684</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -531,39 +531,39 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65837283616</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>952</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65837446268</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>974</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65837628072</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>941</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45398.5841617136</v>
+        <v>45400.65837809687</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45398.5841635035</v>
+        <v>45400.6583797441</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45398.5841651978</v>
+        <v>45400.65838145256</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45398.58416698383</v>
+        <v>45400.65838327751</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45398.58416860303</v>
+        <v>45400.65838502229</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45398.58417040152</v>
+        <v>45400.65838677122</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -603,39 +603,39 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45398.58417220438</v>
+        <v>45400.65838848236</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>832</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45398.58417386457</v>
+        <v>45400.65839044931</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>976</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45398.58417570055</v>
+        <v>45400.65839192166</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>969</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45398.58417747216</v>
+        <v>45400.65839370851</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>863</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45398.58417913755</v>
+        <v>45400.65839533866</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45398.58418096774</v>
+        <v>45400.65839721499</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45398.58418263005</v>
+        <v>45400.65839882993</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45398.58418427406</v>
+        <v>45400.65840058371</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -667,47 +667,47 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45398.58418610972</v>
+        <v>45400.65840239259</v>
       </c>
       <c r="B29" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45398.58418793909</v>
+        <v>45400.65840402812</v>
       </c>
       <c r="B30" t="n">
-        <v>259</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45398.5841895518</v>
+        <v>45400.65840592832</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>972</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45398.58419138679</v>
+        <v>45400.65840765699</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>973</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45398.58419306257</v>
+        <v>45400.65840928993</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>927</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45398.58419479822</v>
+        <v>45400.65841110195</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45398.58419649404</v>
+        <v>45400.65841274991</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45398.58419829841</v>
+        <v>45400.6584145572</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45398.58419993837</v>
+        <v>45400.65841618617</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45398.58420178214</v>
+        <v>45400.65841806462</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45398.58420341337</v>
+        <v>45400.65841978438</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -755,55 +755,55 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45398.58420525357</v>
+        <v>45400.65842143504</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>952</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45398.58420699324</v>
+        <v>45400.6584232575</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>972</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45398.58420869351</v>
+        <v>45400.65842489379</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>919</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45398.5842105327</v>
+        <v>45400.65842672213</v>
       </c>
       <c r="B43" t="n">
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45398.58421217924</v>
+        <v>45400.65842838038</v>
       </c>
       <c r="B44" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45398.58421395074</v>
+        <v>45400.65843019602</v>
       </c>
       <c r="B45" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45398.58421560362</v>
+        <v>45400.6584317858</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45398.58421746291</v>
+        <v>45400.65843361509</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45398.584219185</v>
+        <v>45400.65843545619</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -827,39 +827,39 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45398.58422091694</v>
+        <v>45400.65843705613</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45398.58422256918</v>
+        <v>45400.65843890138</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>975</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45398.58422440951</v>
+        <v>45400.65844053013</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>945</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45398.58422611433</v>
+        <v>45400.65844239564</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45398.58422786812</v>
+        <v>45400.65844410024</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45398.58422962343</v>
+        <v>45400.65844577592</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45398.58423136053</v>
+        <v>45400.65844758393</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45398.58423310866</v>
+        <v>45400.65844923032</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -891,39 +891,39 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45398.58423482081</v>
+        <v>45400.65845106375</v>
       </c>
       <c r="B57" t="n">
-        <v>293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45398.58423658384</v>
+        <v>45400.6584527028</v>
       </c>
       <c r="B58" t="n">
-        <v>360</v>
+        <v>949</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45398.58423825009</v>
+        <v>45400.65845453772</v>
       </c>
       <c r="B59" t="n">
-        <v>34</v>
+        <v>972</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45398.58424007746</v>
+        <v>45400.65845627705</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>927</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45398.58424174303</v>
+        <v>45400.65845789243</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45398.58424348803</v>
+        <v>45400.65845977789</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45398.58424515415</v>
+        <v>45400.65846136758</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45398.58424699696</v>
+        <v>45400.65846320251</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45398.58424872105</v>
+        <v>45400.65846484344</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45398.58425049621</v>
+        <v>45400.65846667331</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -971,55 +971,55 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45398.58425215</v>
+        <v>45400.65846850115</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>957</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45398.58425397892</v>
+        <v>45400.65847009098</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>973</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45398.58425566678</v>
+        <v>45400.6584718997</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>938</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45398.5842574343</v>
+        <v>45400.65847371118</v>
       </c>
       <c r="B70" t="n">
-        <v>266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45398.58425911153</v>
+        <v>45400.65847534085</v>
       </c>
       <c r="B71" t="n">
-        <v>296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45398.58426093441</v>
+        <v>45400.65847714929</v>
       </c>
       <c r="B72" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45398.58426251703</v>
+        <v>45400.65847878332</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45398.58426439583</v>
+        <v>45400.65848062372</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45398.58426599699</v>
+        <v>45400.65848227529</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -1043,39 +1043,39 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45398.5842678327</v>
+        <v>45400.65848409942</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>925</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45398.58426956151</v>
+        <v>45400.65848577353</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>975</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45398.5842713003</v>
+        <v>45400.65848761918</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>947</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45398.58427306951</v>
+        <v>45400.6584892427</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45398.58427477522</v>
+        <v>45400.65849108907</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45398.584276552</v>
+        <v>45400.65849277648</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45398.58427826024</v>
+        <v>45400.65849457541</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45398.58428004295</v>
+        <v>45400.65849622402</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45398.58428174556</v>
+        <v>45400.65849803238</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -1115,31 +1115,31 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45398.58428354465</v>
+        <v>45400.65849975857</v>
       </c>
       <c r="B85" t="n">
-        <v>145</v>
+        <v>916</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45398.5842852291</v>
+        <v>45400.65850148966</v>
       </c>
       <c r="B86" t="n">
-        <v>379</v>
+        <v>975</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45398.58428693945</v>
+        <v>45400.6585032217</v>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>914</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45398.58428871365</v>
+        <v>45400.65850483339</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45398.58429033496</v>
+        <v>45400.65850666534</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45398.58429220229</v>
+        <v>45400.65850834706</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45398.58429395386</v>
+        <v>45400.65851017721</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45398.58429568403</v>
+        <v>45400.65851189597</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45398.58429742293</v>
+        <v>45400.6585135412</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1187,31 +1187,31 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45398.58429916108</v>
+        <v>45400.65851536631</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>943</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45398.58430077589</v>
+        <v>45400.6585171824</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>976</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45398.58430264218</v>
+        <v>45400.65851882517</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>940</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45398.58430438904</v>
+        <v>45400.65852064977</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45398.58430612322</v>
+        <v>45400.6585223346</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45398.58430784634</v>
+        <v>45400.65852397805</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45398.58430959695</v>
+        <v>45400.65852580344</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45398.58431128859</v>
+        <v>45400.65852744861</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1251,39 +1251,39 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45398.58431308437</v>
+        <v>45400.6585292355</v>
       </c>
       <c r="B102" t="n">
-        <v>251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45398.58431470744</v>
+        <v>45400.65853093836</v>
       </c>
       <c r="B103" t="n">
-        <v>365</v>
+        <v>959</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45398.58431656424</v>
+        <v>45400.6585327589</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45398.58431822518</v>
+        <v>45400.65853459067</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>949</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45398.58432003897</v>
+        <v>45400.6585362345</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45398.58432165231</v>
+        <v>45400.65853804211</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45398.58432351879</v>
+        <v>45400.65853967999</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45398.58432513136</v>
+        <v>45400.65854141744</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45398.58432694634</v>
+        <v>45400.65854320736</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1323,39 +1323,39 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45398.58432861615</v>
+        <v>45400.65854501595</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>684</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45398.58433041137</v>
+        <v>45400.65854666886</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>972</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45398.58433207558</v>
+        <v>45400.65854846086</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>924</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45398.58433391486</v>
+        <v>45400.65855009028</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45398.58433570599</v>
+        <v>45400.65855191117</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1363,31 +1363,31 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45398.58433745438</v>
+        <v>45400.65855360089</v>
       </c>
       <c r="B116" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45398.58433913269</v>
+        <v>45400.65855537969</v>
       </c>
       <c r="B117" t="n">
-        <v>361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45398.58434076088</v>
+        <v>45400.65855703795</v>
       </c>
       <c r="B118" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45398.58434257643</v>
+        <v>45400.65855886019</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1395,39 +1395,39 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45398.58434421817</v>
+        <v>45400.65856064177</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>945</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45398.58434605736</v>
+        <v>45400.65856229587</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>975</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45398.58434782183</v>
+        <v>45400.65856412744</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>936</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45398.58434957338</v>
+        <v>45400.6585658024</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45398.58435120533</v>
+        <v>45400.65856758846</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45398.58435302921</v>
+        <v>45400.65856929175</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45398.58435468552</v>
+        <v>45400.65857099183</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45398.58435650347</v>
+        <v>45400.65857279197</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -1459,39 +1459,39 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45398.58435831706</v>
+        <v>45400.65857443669</v>
       </c>
       <c r="B128" t="n">
-        <v>96</v>
+        <v>576</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45398.58435999602</v>
+        <v>45400.65857626084</v>
       </c>
       <c r="B129" t="n">
-        <v>368</v>
+        <v>978</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45398.58436162866</v>
+        <v>45400.65857794791</v>
       </c>
       <c r="B130" t="n">
-        <v>203</v>
+        <v>962</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45398.58436344876</v>
+        <v>45400.65857972481</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45398.58436508085</v>
+        <v>45400.65858145096</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45398.58436688073</v>
+        <v>45400.65858309242</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45398.58436851168</v>
+        <v>45400.65858493103</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45398.58437042469</v>
+        <v>45400.65858658872</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45398.58437218936</v>
+        <v>45400.65858838266</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -1531,55 +1531,55 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45398.58437390602</v>
+        <v>45400.65859019144</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>798</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45398.5843755907</v>
+        <v>45400.65859183981</v>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>976</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45398.58437740863</v>
+        <v>45400.65859365897</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>946</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45398.58437902891</v>
+        <v>45400.6585952995</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45398.58438086977</v>
+        <v>45400.65859709508</v>
       </c>
       <c r="B141" t="n">
-        <v>287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45398.58438250743</v>
+        <v>45400.65859874221</v>
       </c>
       <c r="B142" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45398.58438433634</v>
+        <v>45400.6586005585</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45398.58438599266</v>
+        <v>45400.65860224496</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45398.58438780253</v>
+        <v>45400.65860406549</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -1603,39 +1603,39 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45398.58438953302</v>
+        <v>45400.65860569803</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>740</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45398.58439128985</v>
+        <v>45400.65860751358</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>973</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45398.58439304426</v>
+        <v>45400.65860922838</v>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>946</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45398.5843947707</v>
+        <v>45400.65861103661</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>391</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45398.58439637655</v>
+        <v>45400.65861267962</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45398.5843982719</v>
+        <v>45400.65861450195</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45398.5843999096</v>
+        <v>45400.65861624472</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
@@ -1659,55 +1659,55 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45398.58440173548</v>
+        <v>45400.6586179174</v>
       </c>
       <c r="B153" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45398.58440349231</v>
+        <v>45400.65861956201</v>
       </c>
       <c r="B154" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45398.5844051371</v>
+        <v>45400.6586214037</v>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>822</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45398.58440695881</v>
+        <v>45400.65862308026</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>974</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45398.58440860092</v>
+        <v>45400.65862490544</v>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>957</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45398.58441041131</v>
+        <v>45400.65862665333</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>816</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45398.58441205975</v>
+        <v>45400.65862842213</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45398.58441388902</v>
+        <v>45400.65863006558</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45398.58441561803</v>
+        <v>45400.65863189234</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45398.58441726115</v>
+        <v>45400.65863361778</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45398.5844190975</v>
+        <v>45400.65863520852</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
@@ -1747,39 +1747,39 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45398.58442092022</v>
+        <v>45400.65863711229</v>
       </c>
       <c r="B164" t="n">
-        <v>193</v>
+        <v>796</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45398.58442257212</v>
+        <v>45400.6586388859</v>
       </c>
       <c r="B165" t="n">
-        <v>349</v>
+        <v>972</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45398.58442421827</v>
+        <v>45400.65864063991</v>
       </c>
       <c r="B166" t="n">
-        <v>73</v>
+        <v>956</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45398.58442603912</v>
+        <v>45400.65864228859</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>721</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45398.58442776994</v>
+        <v>45400.65864393135</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45398.58442947394</v>
+        <v>45400.65864573739</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45398.58443124514</v>
+        <v>45400.65864753055</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45398.5844328929</v>
+        <v>45400.65864915837</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45398.58443465449</v>
+        <v>45400.65865100811</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
@@ -1819,55 +1819,55 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45398.58443648546</v>
+        <v>45400.65865274079</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>794</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45398.58443810317</v>
+        <v>45400.65865436572</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>971</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45398.58443994248</v>
+        <v>45400.65865619095</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>967</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45398.58444160598</v>
+        <v>45400.65865787984</v>
       </c>
       <c r="B176" t="n">
-        <v>308</v>
+        <v>775</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45398.58444343584</v>
+        <v>45400.65865970194</v>
       </c>
       <c r="B177" t="n">
-        <v>375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45398.58444507633</v>
+        <v>45400.65866133184</v>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45398.58444682304</v>
+        <v>45400.65866314015</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45398.5844486614</v>
+        <v>45400.65866476013</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45398.58445030936</v>
+        <v>45400.65866658478</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -1891,39 +1891,39 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45398.58445218195</v>
+        <v>45400.65866840791</v>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>791</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45398.58445379858</v>
+        <v>45400.65867002356</v>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>975</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45398.58445561449</v>
+        <v>45400.65867187262</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>955</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45398.58445725912</v>
+        <v>45400.65867349842</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>397</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45398.58445910618</v>
+        <v>45400.65867531727</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45398.58446070581</v>
+        <v>45400.65867709487</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45398.58446252008</v>
+        <v>45400.65867873783</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45398.58446417385</v>
+        <v>45400.65868054615</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45398.58446606384</v>
+        <v>45400.65868236471</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -1963,39 +1963,39 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45398.58446771561</v>
+        <v>45400.65868406479</v>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>741</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45398.58446936902</v>
+        <v>45400.6586857646</v>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45398.58447129322</v>
+        <v>45400.65868741414</v>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>957</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45398.58447293976</v>
+        <v>45400.6586892744</v>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>263</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45398.58447458648</v>
+        <v>45400.65869091889</v>
       </c>
       <c r="B195" t="n">
         <v>0</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45398.58447641465</v>
+        <v>45400.65869275119</v>
       </c>
       <c r="B196" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45398.58447811026</v>
+        <v>45400.65869434144</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45398.58447993522</v>
+        <v>45400.65869607102</v>
       </c>
       <c r="B198" t="n">
         <v>0</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45398.58448156968</v>
+        <v>45400.65869794369</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -2035,39 +2035,39 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45398.58448337481</v>
+        <v>45400.65869970339</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>791</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45398.58448517965</v>
+        <v>45400.65870141786</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>975</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45398.58448682404</v>
+        <v>45400.65870306514</v>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>966</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45398.58448865327</v>
+        <v>45400.65870487336</v>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>787</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45398.58449026693</v>
+        <v>45400.65870666339</v>
       </c>
       <c r="B204" t="n">
         <v>0</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45398.58449208623</v>
+        <v>45400.65870829501</v>
       </c>
       <c r="B205" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45398.58449388156</v>
+        <v>45400.65871011275</v>
       </c>
       <c r="B206" t="n">
         <v>0</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45398.58449557016</v>
+        <v>45400.65871174097</v>
       </c>
       <c r="B207" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45398.58449726992</v>
+        <v>45400.65871353055</v>
       </c>
       <c r="B208" t="n">
         <v>0</v>
@@ -2107,39 +2107,39 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45398.5844990994</v>
+        <v>45400.65871533884</v>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>605</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45398.58450077217</v>
+        <v>45400.65871696543</v>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>968</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45398.58450244416</v>
+        <v>45400.65871881785</v>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>951</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45398.58450426219</v>
+        <v>45400.65872044789</v>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45398.58450591865</v>
+        <v>45400.65872226452</v>
       </c>
       <c r="B213" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45398.58450775084</v>
+        <v>45400.65872391566</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45398.58450937726</v>
+        <v>45400.65872564029</v>
       </c>
       <c r="B215" t="n">
         <v>0</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45398.58451120159</v>
+        <v>45400.65872744995</v>
       </c>
       <c r="B216" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45398.58451302153</v>
+        <v>45400.65872924199</v>
       </c>
       <c r="B217" t="n">
         <v>0</v>
@@ -2179,39 +2179,39 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45398.58451470469</v>
+        <v>45400.65873098874</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>778</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45398.58451634123</v>
+        <v>45400.65873273699</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45398.58451815814</v>
+        <v>45400.6587344396</v>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>972</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45398.58451996616</v>
+        <v>45400.65873626289</v>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>837</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45398.58452157606</v>
+        <v>45400.65873787486</v>
       </c>
       <c r="B222" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45398.58452340237</v>
+        <v>45400.65873956658</v>
       </c>
       <c r="B223" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45398.58452503458</v>
+        <v>45400.65874137509</v>
       </c>
       <c r="B224" t="n">
         <v>0</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45398.58452677817</v>
+        <v>45400.65874318104</v>
       </c>
       <c r="B225" t="n">
         <v>0</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45398.58452862166</v>
+        <v>45400.65874481035</v>
       </c>
       <c r="B226" t="n">
         <v>0</v>
@@ -2251,39 +2251,39 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45398.58453039027</v>
+        <v>45400.65874661595</v>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45398.58453210782</v>
+        <v>45400.65874832209</v>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>956</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45398.584533765</v>
+        <v>45400.65875004472</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>973</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45398.58453560687</v>
+        <v>45400.65875168257</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>933</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45398.58453732568</v>
+        <v>45400.65875349144</v>
       </c>
       <c r="B231" t="n">
         <v>0</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45398.58453906065</v>
+        <v>45400.65875529755</v>
       </c>
       <c r="B232" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45398.58454077401</v>
+        <v>45400.65875706705</v>
       </c>
       <c r="B233" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45398.58454239806</v>
+        <v>45400.65875870874</v>
       </c>
       <c r="B234" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45398.58454424928</v>
+        <v>45400.65876036002</v>
       </c>
       <c r="B235" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45398.58454588563</v>
+        <v>45400.65876212114</v>
       </c>
       <c r="B236" t="n">
         <v>0</v>
@@ -2331,31 +2331,31 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45398.58454770338</v>
+        <v>45400.65876395084</v>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>947</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45398.58454934211</v>
+        <v>45400.65876579428</v>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>974</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45398.58455120755</v>
+        <v>45400.65876740548</v>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>872</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45398.58455282731</v>
+        <v>45400.65876919297</v>
       </c>
       <c r="B240" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45398.5845546498</v>
+        <v>45400.65877084291</v>
       </c>
       <c r="B241" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45398.58455646955</v>
+        <v>45400.65877265237</v>
       </c>
       <c r="B242" t="n">
         <v>0</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45398.58455815427</v>
+        <v>45400.65877445584</v>
       </c>
       <c r="B243" t="n">
         <v>0</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45398.58455979751</v>
+        <v>45400.65877612666</v>
       </c>
       <c r="B244" t="n">
         <v>0</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45398.58456162238</v>
+        <v>45400.65877776907</v>
       </c>
       <c r="B245" t="n">
         <v>0</v>
@@ -2403,31 +2403,31 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45398.58456337814</v>
+        <v>45400.65877957895</v>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>943</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45398.58456513452</v>
+        <v>45400.65878127118</v>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>974</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45398.58456677366</v>
+        <v>45400.65878311248</v>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>893</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45398.58456861843</v>
+        <v>45400.65878480056</v>
       </c>
       <c r="B249" t="n">
         <v>0</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45398.58457021113</v>
+        <v>45400.65878652536</v>
       </c>
       <c r="B250" t="n">
         <v>0</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45398.58457204081</v>
+        <v>45400.65878834302</v>
       </c>
       <c r="B251" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45398.58457367853</v>
+        <v>45400.65878999509</v>
       </c>
       <c r="B252" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45398.5845755332</v>
+        <v>45400.65879181803</v>
       </c>
       <c r="B253" t="n">
         <v>0</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45398.58457732652</v>
+        <v>45400.65879340198</v>
       </c>
       <c r="B254" t="n">
         <v>0</v>
@@ -2475,39 +2475,39 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45398.58457896542</v>
+        <v>45400.65879525235</v>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>927</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45398.58458079874</v>
+        <v>45400.6587970632</v>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>976</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45398.58458242361</v>
+        <v>45400.65879867262</v>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>944</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45398.58458425311</v>
+        <v>45400.65880048066</v>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45398.58458592195</v>
+        <v>45400.65880212859</v>
       </c>
       <c r="B259" t="n">
         <v>0</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45398.58458769979</v>
+        <v>45400.65880398501</v>
       </c>
       <c r="B260" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45398.58458934518</v>
+        <v>45400.65880575282</v>
       </c>
       <c r="B261" t="n">
         <v>0</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45398.58459119103</v>
+        <v>45400.65880739205</v>
       </c>
       <c r="B262" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45398.5845928238</v>
+        <v>45400.65880920569</v>
       </c>
       <c r="B263" t="n">
         <v>0</v>
@@ -2547,31 +2547,31 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45398.5845947048</v>
+        <v>45400.65881096305</v>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>916</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45398.58459629327</v>
+        <v>45400.65881260586</v>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>973</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45398.58459807099</v>
+        <v>45400.6588144179</v>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>916</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45398.58459986624</v>
+        <v>45400.65881604613</v>
       </c>
       <c r="B267" t="n">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45398.58460150862</v>
+        <v>45400.65881782179</v>
       </c>
       <c r="B268" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45398.58460334259</v>
+        <v>45400.65881965323</v>
       </c>
       <c r="B269" t="n">
         <v>0</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45398.58460499197</v>
+        <v>45400.65882128271</v>
       </c>
       <c r="B270" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45398.58460673061</v>
+        <v>45400.65882306142</v>
       </c>
       <c r="B271" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45398.58460853302</v>
+        <v>45400.65882469118</v>
       </c>
       <c r="B272" t="n">
         <v>0</v>
@@ -2619,39 +2619,39 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45398.58461034638</v>
+        <v>45400.65882650515</v>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>773</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45398.58461202047</v>
+        <v>45400.65882836227</v>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>974</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45398.58461381667</v>
+        <v>45400.65883005824</v>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45398.58461545286</v>
+        <v>45400.65883168791</v>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>386</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45398.58461728431</v>
+        <v>45400.65883349477</v>
       </c>
       <c r="B277" t="n">
         <v>0</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45398.58461890977</v>
+        <v>45400.65883520755</v>
       </c>
       <c r="B278" t="n">
         <v>0</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45398.58462075414</v>
+        <v>45400.65883694479</v>
       </c>
       <c r="B279" t="n">
         <v>0</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45398.58462240382</v>
+        <v>45400.65883874381</v>
       </c>
       <c r="B280" t="n">
         <v>0</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45398.584624265</v>
+        <v>45400.65884045588</v>
       </c>
       <c r="B281" t="n">
         <v>0</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45398.58462593151</v>
+        <v>45400.65884221015</v>
       </c>
       <c r="B282" t="n">
         <v>0</v>
@@ -2699,31 +2699,31 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45398.5846275676</v>
+        <v>45400.65884401692</v>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>969</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45398.58462947363</v>
+        <v>45400.65884564633</v>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>968</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45398.58463107402</v>
+        <v>45400.65884751149</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>889</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45398.58463289186</v>
+        <v>45400.65884910199</v>
       </c>
       <c r="B286" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45398.58463454531</v>
+        <v>45400.65885091273</v>
       </c>
       <c r="B287" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45398.58463644025</v>
+        <v>45400.6588525489</v>
       </c>
       <c r="B288" t="n">
         <v>0</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45398.58463807747</v>
+        <v>45400.65885437343</v>
       </c>
       <c r="B289" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45398.58463989722</v>
+        <v>45400.65885600016</v>
       </c>
       <c r="B290" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45398.58464154629</v>
+        <v>45400.65885781194</v>
       </c>
       <c r="B291" t="n">
         <v>0</v>
@@ -2771,31 +2771,31 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45398.58464321949</v>
+        <v>45400.65885964794</v>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>959</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45398.5846450753</v>
+        <v>45400.6588612811</v>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45398.58464686776</v>
+        <v>45400.65886311951</v>
       </c>
       <c r="B294" t="n">
-        <v>0</v>
+        <v>649</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45398.58464859035</v>
+        <v>45400.65886476813</v>
       </c>
       <c r="B295" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45398.58465022784</v>
+        <v>45400.65886651774</v>
       </c>
       <c r="B296" t="n">
         <v>0</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45398.58465204206</v>
+        <v>45400.65886833186</v>
       </c>
       <c r="B297" t="n">
         <v>0</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45398.58465368512</v>
+        <v>45400.65886995944</v>
       </c>
       <c r="B298" t="n">
         <v>0</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45398.58465544901</v>
+        <v>45400.6588717925</v>
       </c>
       <c r="B299" t="n">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45398.58465710474</v>
+        <v>45400.65887341404</v>
       </c>
       <c r="B300" t="n">
         <v>0</v>
@@ -2843,31 +2843,31 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45398.58465897269</v>
+        <v>45400.65887522745</v>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>952</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45398.58466072474</v>
+        <v>45400.65887704738</v>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>971</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45398.58466250078</v>
+        <v>45400.6588787174</v>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>884</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45398.5846642187</v>
+        <v>45400.65888034143</v>
       </c>
       <c r="B304" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45398.58466586135</v>
+        <v>45400.65888217364</v>
       </c>
       <c r="B305" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45398.58466763494</v>
+        <v>45400.65888381319</v>
       </c>
       <c r="B306" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45398.58466934218</v>
+        <v>45400.65888559099</v>
       </c>
       <c r="B307" t="n">
         <v>0</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45398.58467112558</v>
+        <v>45400.65888742257</v>
       </c>
       <c r="B308" t="n">
         <v>0</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45398.58467294964</v>
+        <v>45400.65888908679</v>
       </c>
       <c r="B309" t="n">
         <v>0</v>
@@ -2915,31 +2915,31 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45398.5846746295</v>
+        <v>45400.65889090101</v>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>951</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45398.58467630394</v>
+        <v>45400.65889266631</v>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>967</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45398.58467810372</v>
+        <v>45400.65889430822</v>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>726</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45398.58467985022</v>
+        <v>45400.65889613228</v>
       </c>
       <c r="B313" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45398.58468166714</v>
+        <v>45400.65889773576</v>
       </c>
       <c r="B314" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45398.58468330622</v>
+        <v>45400.65889956122</v>
       </c>
       <c r="B315" t="n">
         <v>0</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45398.58468494162</v>
+        <v>45400.65890123782</v>
       </c>
       <c r="B316" t="n">
         <v>0</v>
@@ -2971,15 +2971,15 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45398.58468676612</v>
+        <v>45400.65890299254</v>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45398.58468859083</v>
+        <v>45400.65890480928</v>
       </c>
       <c r="B318" t="n">
         <v>0</v>
@@ -2987,31 +2987,31 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45398.58469023633</v>
+        <v>45400.65890643679</v>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>926</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45398.58469203272</v>
+        <v>45400.65890825215</v>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>971</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45398.58469372116</v>
+        <v>45400.65890989426</v>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>766</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45398.58469550812</v>
+        <v>45400.65891171</v>
       </c>
       <c r="B322" t="n">
         <v>0</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45398.58469720156</v>
+        <v>45400.65891335491</v>
       </c>
       <c r="B323" t="n">
         <v>0</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45398.58469898763</v>
+        <v>45400.65891516566</v>
       </c>
       <c r="B324" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45398.58470068508</v>
+        <v>45400.65891697657</v>
       </c>
       <c r="B325" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45398.58470239028</v>
+        <v>45400.65891862823</v>
       </c>
       <c r="B326" t="n">
         <v>0</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45398.58470424703</v>
+        <v>45400.6589204483</v>
       </c>
       <c r="B327" t="n">
         <v>0</v>
@@ -3059,31 +3059,31 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45398.5847058497</v>
+        <v>45400.65892222605</v>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45398.58470767207</v>
+        <v>45400.6589238736</v>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>972</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45398.58470930711</v>
+        <v>45400.65892569207</v>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>932</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45398.58471114202</v>
+        <v>45400.65892731051</v>
       </c>
       <c r="B331" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45398.58471290034</v>
+        <v>45400.658929137</v>
       </c>
       <c r="B332" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45398.58471462499</v>
+        <v>45400.65893081147</v>
       </c>
       <c r="B333" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45398.58471634123</v>
+        <v>45400.65893259774</v>
       </c>
       <c r="B334" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45398.58471811228</v>
+        <v>45400.65893424729</v>
       </c>
       <c r="B335" t="n">
         <v>0</v>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45398.58471982655</v>
+        <v>45400.65893602773</v>
       </c>
       <c r="B336" t="n">
         <v>0</v>
@@ -3131,31 +3131,31 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45398.58472159866</v>
+        <v>45400.6589378526</v>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>958</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45398.58472333541</v>
+        <v>45400.65893991914</v>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>968</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45398.58472508302</v>
+        <v>45400.65894120383</v>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>633</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45398.58472663685</v>
+        <v>45400.6589430302</v>
       </c>
       <c r="B340" t="n">
         <v>0</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45398.58472855799</v>
+        <v>45400.65894468228</v>
       </c>
       <c r="B341" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45398.58473031443</v>
+        <v>45400.65894655669</v>
       </c>
       <c r="B342" t="n">
         <v>0</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45398.5847319618</v>
+        <v>45400.65894818434</v>
       </c>
       <c r="B343" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45398.58473375266</v>
+        <v>45400.65894999715</v>
       </c>
       <c r="B344" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45398.58473552212</v>
+        <v>45400.65895166456</v>
       </c>
       <c r="B345" t="n">
         <v>0</v>
@@ -3203,31 +3203,31 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45398.58473728285</v>
+        <v>45400.65895345263</v>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45398.58473883932</v>
+        <v>45400.65895527169</v>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>971</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45398.58474065489</v>
+        <v>45400.65895691767</v>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>817</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45398.58474236058</v>
+        <v>45400.6589586939</v>
       </c>
       <c r="B349" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45398.5847441978</v>
+        <v>45400.65896033349</v>
       </c>
       <c r="B350" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45398.58474586387</v>
+        <v>45400.65896217362</v>
       </c>
       <c r="B351" t="n">
         <v>0</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45398.58474766497</v>
+        <v>45400.65896394855</v>
       </c>
       <c r="B352" t="n">
         <v>0</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45398.58474929862</v>
+        <v>45400.65896560453</v>
       </c>
       <c r="B353" t="n">
         <v>0</v>
@@ -3267,39 +3267,39 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45398.58475116654</v>
+        <v>45400.65896741876</v>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45398.5847528762</v>
+        <v>45400.65896907523</v>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>962</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45398.5847546174</v>
+        <v>45400.65897087048</v>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>971</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45398.58475624992</v>
+        <v>45400.65897251286</v>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45398.5847580681</v>
+        <v>45400.65897432346</v>
       </c>
       <c r="B358" t="n">
         <v>0</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45398.58475970093</v>
+        <v>45400.65897598156</v>
       </c>
       <c r="B359" t="n">
         <v>0</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45398.58476152438</v>
+        <v>45400.65897770591</v>
       </c>
       <c r="B360" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45398.58476334641</v>
+        <v>45400.65897953014</v>
       </c>
       <c r="B361" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45398.58476505474</v>
+        <v>45400.65898116051</v>
       </c>
       <c r="B362" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45398.58476669774</v>
+        <v>45400.65898304604</v>
       </c>
       <c r="B363" t="n">
         <v>0</v>
@@ -3347,31 +3347,31 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45398.58476856349</v>
+        <v>45400.65898466927</v>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>955</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45398.58477020478</v>
+        <v>45400.65898653522</v>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>974</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45398.58477202493</v>
+        <v>45400.65898830395</v>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>858</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45398.58477367655</v>
+        <v>45400.65899002887</v>
       </c>
       <c r="B367" t="n">
         <v>0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45398.58477548145</v>
+        <v>45400.65899173312</v>
       </c>
       <c r="B368" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45398.58477722565</v>
+        <v>45400.65899341251</v>
       </c>
       <c r="B369" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45398.58477896762</v>
+        <v>45400.65899516612</v>
       </c>
       <c r="B370" t="n">
         <v>0</v>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45398.58478060905</v>
+        <v>45400.65899687817</v>
       </c>
       <c r="B371" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45398.58478242601</v>
+        <v>45400.65899870203</v>
       </c>
       <c r="B372" t="n">
         <v>0</v>
@@ -3419,31 +3419,31 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45398.58478420174</v>
+        <v>45400.65900038151</v>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>958</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45398.58478585364</v>
+        <v>45400.65900216539</v>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>969</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45398.58478750359</v>
+        <v>45400.6590038158</v>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>779</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45398.58478935085</v>
+        <v>45400.65900564646</v>
       </c>
       <c r="B376" t="n">
         <v>0</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45398.58479103664</v>
+        <v>45400.6590073481</v>
       </c>
       <c r="B377" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45398.58479286554</v>
+        <v>45400.65900898531</v>
       </c>
       <c r="B378" t="n">
         <v>0</v>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45398.58479449821</v>
+        <v>45400.65901080971</v>
       </c>
       <c r="B379" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45398.58479628777</v>
+        <v>45400.6590124641</v>
       </c>
       <c r="B380" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45398.58479810954</v>
+        <v>45400.65901421027</v>
       </c>
       <c r="B381" t="n">
         <v>0</v>
@@ -3491,31 +3491,31 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45398.58479977211</v>
+        <v>45400.65901602591</v>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>925</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45398.584801424</v>
+        <v>45400.65901784778</v>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>975</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45398.58480324148</v>
+        <v>45400.65901947213</v>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>909</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45398.584805028</v>
+        <v>45400.65902131012</v>
       </c>
       <c r="B385" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45398.58480673978</v>
+        <v>45400.65902297205</v>
       </c>
       <c r="B386" t="n">
         <v>0</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45398.58480851303</v>
+        <v>45400.65902477582</v>
       </c>
       <c r="B387" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45398.58481017173</v>
+        <v>45400.65902640426</v>
       </c>
       <c r="B388" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45398.58481199726</v>
+        <v>45400.65902819441</v>
       </c>
       <c r="B389" t="n">
         <v>0</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45398.58481365738</v>
+        <v>45400.65902984718</v>
       </c>
       <c r="B390" t="n">
         <v>0</v>
@@ -3563,31 +3563,31 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45398.58481544455</v>
+        <v>45400.65903165501</v>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>880</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45398.58481710187</v>
+        <v>45400.65903346517</v>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>973</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45398.58481893384</v>
+        <v>45400.65903510599</v>
       </c>
       <c r="B393" t="n">
-        <v>0</v>
+        <v>860</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45398.58482066793</v>
+        <v>45400.65903693816</v>
       </c>
       <c r="B394" t="n">
         <v>0</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45398.58482232717</v>
+        <v>45400.65903853396</v>
       </c>
       <c r="B395" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45398.58482413971</v>
+        <v>45400.65904038531</v>
       </c>
       <c r="B396" t="n">
         <v>0</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45398.5848257742</v>
+        <v>45400.65904217679</v>
       </c>
       <c r="B397" t="n">
         <v>0</v>
@@ -3619,7 +3619,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45398.58482748106</v>
+        <v>45400.65904379031</v>
       </c>
       <c r="B398" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45398.58482930061</v>
+        <v>45400.65904561014</v>
       </c>
       <c r="B399" t="n">
         <v>0</v>
@@ -3635,130 +3635,18 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45398.58483112465</v>
+        <v>45400.65904726047</v>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>873</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45398.58483283258</v>
+        <v>45400.65904909153</v>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
-        <v>45398.58483445943</v>
-      </c>
-      <c r="B402" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
-        <v>45398.58483627301</v>
-      </c>
-      <c r="B403" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
-        <v>45398.58483798245</v>
-      </c>
-      <c r="B404" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
-        <v>45398.5848397846</v>
-      </c>
-      <c r="B405" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
-        <v>45398.58484156678</v>
-      </c>
-      <c r="B406" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
-        <v>45398.58484322271</v>
-      </c>
-      <c r="B407" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
-        <v>45398.58484497591</v>
-      </c>
-      <c r="B408" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
-        <v>45398.58484673603</v>
-      </c>
-      <c r="B409" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
-        <v>45398.58484840022</v>
-      </c>
-      <c r="B410" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
-        <v>45398.58485025269</v>
-      </c>
-      <c r="B411" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
-        <v>45398.58485200263</v>
-      </c>
-      <c r="B412" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
-        <v>45398.58485364776</v>
-      </c>
-      <c r="B413" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
-        <v>45398.58485532266</v>
-      </c>
-      <c r="B414" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
-        <v>45398.58485713322</v>
-      </c>
-      <c r="B415" t="n">
-        <v>0</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>
